--- a/medicine/Mort/Nécronyme/Nécronyme.xlsx
+++ b/medicine/Mort/Nécronyme/Nécronyme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cronyme</t>
+          <t>Nécronyme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nécronyme est un prénom, ou une référence au nom, d'une personne décédée. 
 Certaines cultures ont des tabous ou des traditions associées au fait de se référer à cette personne. Elles varient d'un extrême à l'autre : ne plus jamais parler du vrai nom de quelqu'un, et par là, utiliser à la place une périphrase ; ou bien au contraire, lui rendre hommage constamment en nommant les choses ou des personnes d'après son nom. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cronyme</t>
+          <t>Nécronyme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Niger, dans la région de Dosso, il existe chez les Zarma une forte croyance au pouvoir du nom face à la fatalité, à l’impuissance. Au moment où les grandes épidémies sévissaient, la survie de l’enfant était une préoccupation majeure pour les parents et la communauté. Le taux de mortalité infantile était très élevé et mère, père, grands-parents, féticheurs cherchaient différents subterfuges pour faire échapper l’enfant à la mort. L’attribution du nom est un de ces moyens. On estime que plus du tiers des noms a un rapport direct avec la mort. Dans l’espoir de voir l’enfant survivre, il peut recevoir dès sa naissance un nécronyme qui est un nom qui exprime la relation d’un parent décédé avec le sujet. Si la mort s’est déjà emparée de celui qui a auparavant porté ce nom alors elle est supposée épargner celui à qui on vient de l’attribuer.
 En Italie, il est fréquent d'appeler un (ou une) enfant du prénom d'un frère (ou d'une sœur) décédé en bas âge, parfois même un prénom composé si deux ou plusieurs enfants de la fratrie sont décédés à la suite. C'était également le cas en France jusqu'au début du XXe siècle.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cronyme</t>
+          <t>Nécronyme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>L'ambiguïté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette tradition des nécronymes a parfois induit les historiens en erreur. Deux certificats de naissance portant le même nom mènent souvent à confondre deux personnes distinctes. Cette confusion découle souvent de l'impossibilité de savoir qui est qui lorsque se pose la question de rétablir l'attribution des certificats à la bonne personne.
 Un des exemples les plus célèbres est Shigechiyo Izumi, qui aurait ainsi « usurpé » son titre de doyen de l'humanité pendant près de dix ans.
